--- a/camporee_results.xlsx
+++ b/camporee_results.xlsx
@@ -760,11 +760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496215888"/>
-        <c:axId val="502559312"/>
+        <c:axId val="223790432"/>
+        <c:axId val="223790824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496215888"/>
+        <c:axId val="223790432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502559312"/>
+        <c:crossAx val="223790824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -815,7 +815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502559312"/>
+        <c:axId val="223790824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496215888"/>
+        <c:crossAx val="223790432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,11 +1867,11 @@
         <v>55</v>
       </c>
       <c r="E2">
-        <f>ABS(C2-$I$2)+ABS(D2-$I$3)</f>
+        <f t="shared" ref="E2:E41" si="0">ABS(C2-$I$2)+ABS(D2-$I$3)</f>
         <v>19.208333333333329</v>
       </c>
       <c r="F2">
-        <f>(C2-$I$2)^2 + (D2-$I$3)^2</f>
+        <f t="shared" ref="F2:F41" si="1">(C2-$I$2)^2 + (D2-$I$3)^2</f>
         <v>255.98090277777763</v>
       </c>
       <c r="G2">
@@ -1912,15 +1912,15 @@
         <v>67.5</v>
       </c>
       <c r="E3">
-        <f>ABS(C3-$I$2)+ABS(D3-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>8.4083333333333314</v>
       </c>
       <c r="F3">
-        <f>(C3-$I$2)^2 + (D3-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>37.862569444444446</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="0">ABS(C3+D3-$I$2-$I$3)</f>
+        <f t="shared" ref="G3:G41" si="2">ABS(C3+D3-$I$2-$I$3)</f>
         <v>2.2416666666666742</v>
       </c>
       <c r="H3" t="s">
@@ -1957,15 +1957,15 @@
         <v>58</v>
       </c>
       <c r="E4">
-        <f>ABS(C4-$I$2)+ABS(D4-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>15.30833333333333</v>
       </c>
       <c r="F4">
-        <f>(C4-$I$2)^2 + (D4-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>165.76590277777765</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8583333333333343</v>
       </c>
       <c r="K4">
@@ -1995,15 +1995,15 @@
         <v>58</v>
       </c>
       <c r="E5">
-        <f>ABS(C5-$I$2)+ABS(D5-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>17.458333333333329</v>
       </c>
       <c r="F5">
-        <f>(C5-$I$2)^2 + (D5-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>182.10590277777766</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.458333333333329</v>
       </c>
       <c r="K5">
@@ -2033,15 +2033,15 @@
         <v>67.5</v>
       </c>
       <c r="E6">
-        <f>ABS(C6-$I$2)+ABS(D6-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.2083333333333286</v>
       </c>
       <c r="F6">
-        <f>(C6-$I$2)^2 + (D6-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>10.772569444444414</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9583333333333286</v>
       </c>
       <c r="K6">
@@ -2071,15 +2071,15 @@
         <v>68.599999999999994</v>
       </c>
       <c r="E7">
-        <f>ABS(C7-$I$2)+ABS(D7-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>3.8583333333333343</v>
       </c>
       <c r="F7">
-        <f>(C7-$I$2)^2 + (D7-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>7.4492361111111149</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8583333333333343</v>
       </c>
       <c r="I7">
@@ -2117,23 +2117,23 @@
         <v>67.5</v>
       </c>
       <c r="E8">
-        <f>ABS(C8-$I$2)+ABS(D8-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.4083333333333279</v>
       </c>
       <c r="F8">
-        <f>(C8-$I$2)^2 + (D8-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>11.262569444444413</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7583333333333258</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I21" si="1">C8-$I$2</f>
+        <f t="shared" ref="I8:I9" si="3">C8-$I$2</f>
         <v>1.3249999999999993</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J21" si="2">D8-$I$3</f>
+        <f t="shared" ref="J8:J9" si="4">D8-$I$3</f>
         <v>-3.0833333333333286</v>
       </c>
       <c r="K8">
@@ -2163,23 +2163,23 @@
         <v>67.5</v>
       </c>
       <c r="E9">
-        <f>ABS(C9-$I$2)+ABS(D9-$I$3)</f>
-        <v>3.4583333333333286</v>
-      </c>
-      <c r="F9">
-        <f>(C9-$I$2)^2 + (D9-$I$3)^2</f>
-        <v>9.6475694444444144</v>
-      </c>
-      <c r="G9">
         <f t="shared" si="0"/>
         <v>3.4583333333333286</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9.6475694444444144</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>3.4583333333333286</v>
+      </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.375</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.0833333333333286</v>
       </c>
       <c r="K9">
@@ -2209,15 +2209,15 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f>ABS(C10-$I$2)+ABS(D10-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>29.458333333333329</v>
       </c>
       <c r="F10">
-        <f>(C10-$I$2)^2 + (D10-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>817.77256944444423</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.458333333333329</v>
       </c>
       <c r="K10">
@@ -2247,15 +2247,15 @@
         <v>68</v>
       </c>
       <c r="E11">
-        <f>ABS(C11-$I$2)+ABS(D11-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>6.4772333333333307</v>
       </c>
       <c r="F11">
-        <f>(C11-$I$2)^2 + (D11-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>21.836068321111103</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3105666666666735</v>
       </c>
       <c r="K11">
@@ -2285,15 +2285,15 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <f>ABS(C12-$I$2)+ABS(D12-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>17.958333333333329</v>
       </c>
       <c r="F12">
-        <f>(C12-$I$2)^2 + (D12-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>276.89756944444429</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.958333333333329</v>
       </c>
       <c r="K12">
@@ -2323,15 +2323,15 @@
         <v>59</v>
       </c>
       <c r="E13">
-        <f>ABS(C13-$I$2)+ABS(D13-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>18.858333333333327</v>
       </c>
       <c r="F13">
-        <f>(C13-$I$2)^2 + (D13-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>187.099236111111</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.858333333333334</v>
       </c>
       <c r="K13">
@@ -2361,15 +2361,15 @@
         <v>66.5</v>
       </c>
       <c r="E14">
-        <f>ABS(C14-$I$2)+ABS(D14-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>5.9583333333333286</v>
       </c>
       <c r="F14">
-        <f>(C14-$I$2)^2 + (D14-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>20.189236111111072</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.9583333333333286</v>
       </c>
       <c r="K14">
@@ -2399,15 +2399,15 @@
         <v>63.800699999999999</v>
       </c>
       <c r="E15">
-        <f>ABS(C15-$I$2)+ABS(D15-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>9.9076333333333295</v>
       </c>
       <c r="F15">
-        <f>(C15-$I$2)^2 + (D15-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>55.769739934444395</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6576333333333224</v>
       </c>
       <c r="K15">
@@ -2437,15 +2437,15 @@
         <v>65</v>
       </c>
       <c r="E16">
-        <f>ABS(C16-$I$2)+ABS(D16-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>9.4583333333333286</v>
       </c>
       <c r="F16">
-        <f>(C16-$I$2)^2 + (D16-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>46.189236111111057</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4583333333333286</v>
       </c>
       <c r="K16">
@@ -2475,15 +2475,15 @@
         <v>57</v>
       </c>
       <c r="E17">
-        <f>ABS(C17-$I$2)+ABS(D17-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>20.708333333333329</v>
       </c>
       <c r="F17">
-        <f>(C17-$I$2)^2 + (D17-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>235.27256944444431</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4583333333333286</v>
       </c>
       <c r="K17">
@@ -2513,15 +2513,15 @@
         <v>75</v>
       </c>
       <c r="E18">
-        <f>ABS(C18-$I$2)+ABS(D18-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>11.69166666666667</v>
       </c>
       <c r="F18">
-        <f>(C18-$I$2)^2 + (D18-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>72.432569444444468</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8583333333333343</v>
       </c>
       <c r="K18">
@@ -2551,15 +2551,15 @@
         <v>66.7</v>
       </c>
       <c r="E19">
-        <f>ABS(C19-$I$2)+ABS(D19-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>18.708333333333329</v>
       </c>
       <c r="F19">
-        <f>(C19-$I$2)^2 + (D19-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>234.8609027777778</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.941666666666677</v>
       </c>
       <c r="K19">
@@ -2589,15 +2589,15 @@
         <v>83</v>
       </c>
       <c r="E20">
-        <f>ABS(C20-$I$2)+ABS(D20-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>20.791666666666671</v>
       </c>
       <c r="F20">
-        <f>(C20-$I$2)^2 + (D20-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>224.31423611111123</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0416666666666714</v>
       </c>
       <c r="K20">
@@ -2627,15 +2627,15 @@
         <v>70</v>
       </c>
       <c r="E21">
-        <f>ABS(C21-$I$2)+ABS(D21-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>2.4583333333333286</v>
       </c>
       <c r="F21">
-        <f>(C21-$I$2)^2 + (D21-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>3.8559027777777724</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4583333333333286</v>
       </c>
       <c r="K21">
@@ -2665,15 +2665,15 @@
         <v>71.5</v>
       </c>
       <c r="E22">
-        <f>ABS(C22-$I$2)+ABS(D22-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>5.7916666666666714</v>
       </c>
       <c r="F22">
-        <f>(C22-$I$2)^2 + (D22-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>24.605902777777786</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9583333333333286</v>
       </c>
       <c r="K22">
@@ -2703,15 +2703,15 @@
         <v>68.75</v>
       </c>
       <c r="E23">
-        <f>ABS(C23-$I$2)+ABS(D23-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>6.2083333333333286</v>
       </c>
       <c r="F23">
-        <f>(C23-$I$2)^2 + (D23-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>22.501736111111093</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2083333333333286</v>
       </c>
       <c r="K23">
@@ -2741,15 +2741,15 @@
         <v>77</v>
       </c>
       <c r="E24">
-        <f>ABS(C24-$I$2)+ABS(D24-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>12.241666666666674</v>
       </c>
       <c r="F24">
-        <f>(C24-$I$2)^2 + (D24-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>75.104236111111206</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.241666666666674</v>
       </c>
       <c r="K24">
@@ -2779,15 +2779,15 @@
         <v>72</v>
       </c>
       <c r="E25">
-        <f>ABS(C25-$I$2)+ABS(D25-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.5416666666666714</v>
       </c>
       <c r="F25">
-        <f>(C25-$I$2)^2 + (D25-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>11.772569444444457</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5416666666666714</v>
       </c>
       <c r="K25">
@@ -2817,15 +2817,15 @@
         <v>75</v>
       </c>
       <c r="E26">
-        <f>ABS(C26-$I$2)+ABS(D26-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>6.7916666666666714</v>
       </c>
       <c r="F26">
-        <f>(C26-$I$2)^2 + (D26-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>25.147569444444485</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0416666666666714</v>
       </c>
       <c r="K26">
@@ -2855,15 +2855,15 @@
         <v>63.5</v>
       </c>
       <c r="E27">
-        <f>ABS(C27-$I$2)+ABS(D27-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>12.898333333333326</v>
       </c>
       <c r="F27">
-        <f>(C27-$I$2)^2 + (D27-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>83.987836111111022</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2683333333333309</v>
       </c>
       <c r="K27">
@@ -2893,15 +2893,15 @@
         <v>62.4</v>
       </c>
       <c r="E28">
-        <f>ABS(C28-$I$2)+ABS(D28-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>9.7583333333333293</v>
       </c>
       <c r="F28">
-        <f>(C28-$I$2)^2 + (D28-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>69.447569444444397</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.7583333333333258</v>
       </c>
       <c r="K28">
@@ -2931,15 +2931,15 @@
         <v>71</v>
       </c>
       <c r="E29">
-        <f>ABS(C29-$I$2)+ABS(D29-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>1.2916666666666714</v>
       </c>
       <c r="F29">
-        <f>(C29-$I$2)^2 + (D29-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>0.93923611111111505</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4583333333333286</v>
       </c>
       <c r="K29">
@@ -2969,15 +2969,15 @@
         <v>65</v>
       </c>
       <c r="E30">
-        <f>ABS(C30-$I$2)+ABS(D30-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>10.458333333333329</v>
       </c>
       <c r="F30">
-        <f>(C30-$I$2)^2 + (D30-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>54.939236111111057</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.458333333333329</v>
       </c>
       <c r="K30">
@@ -3007,15 +3007,15 @@
         <v>70.349999999999994</v>
       </c>
       <c r="E31">
-        <f>ABS(C31-$I$2)+ABS(D31-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>1.5083333333333329</v>
       </c>
       <c r="F31">
-        <f>(C31-$I$2)^2 + (D31-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>1.6800694444444413</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.50833333333334</v>
       </c>
       <c r="K31">
@@ -3045,15 +3045,15 @@
         <v>73</v>
       </c>
       <c r="E32">
-        <f>ABS(C32-$I$2)+ABS(D32-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.4916666666666707</v>
       </c>
       <c r="F32">
-        <f>(C32-$I$2)^2 + (D32-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>10.145902777777799</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34166666666666856</v>
       </c>
       <c r="K32">
@@ -3083,15 +3083,15 @@
         <v>70.25</v>
       </c>
       <c r="E33">
-        <f>ABS(C33-$I$2)+ABS(D33-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0.7083333333333286</v>
       </c>
       <c r="F33">
-        <f>(C33-$I$2)^2 + (D33-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>0.25173611111110794</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.7083333333333286</v>
       </c>
       <c r="K33">
@@ -3121,15 +3121,15 @@
         <v>70.5</v>
       </c>
       <c r="E34">
-        <f>ABS(C34-$I$2)+ABS(D34-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.4583333333333286</v>
       </c>
       <c r="F34">
-        <f>(C34-$I$2)^2 + (D34-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>19.147569444444443</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4583333333333286</v>
       </c>
       <c r="K34">
@@ -3159,15 +3159,15 @@
         <v>62.4</v>
       </c>
       <c r="E35">
-        <f>ABS(C35-$I$2)+ABS(D35-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>9.55833333333333</v>
       </c>
       <c r="F35">
-        <f>(C35-$I$2)^2 + (D35-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>68.857569444444394</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5583333333333229</v>
       </c>
       <c r="K35">
@@ -3197,15 +3197,15 @@
         <v>60</v>
       </c>
       <c r="E36">
-        <f>ABS(C36-$I$2)+ABS(D36-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>21.958333333333329</v>
       </c>
       <c r="F36">
-        <f>(C36-$I$2)^2 + (D36-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>241.39756944444434</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.958333333333329</v>
       </c>
       <c r="K36">
@@ -3235,15 +3235,15 @@
         <v>84.5</v>
       </c>
       <c r="E37">
-        <f>ABS(C37-$I$2)+ABS(D37-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>18.891666666666673</v>
       </c>
       <c r="F37">
-        <f>(C37-$I$2)^2 + (D37-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>218.42423611111127</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9416666666666771</v>
       </c>
       <c r="K37">
@@ -3273,15 +3273,15 @@
         <v>70</v>
       </c>
       <c r="E38">
-        <f>ABS(C38-$I$2)+ABS(D38-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>4.7583333333333293</v>
       </c>
       <c r="F38">
-        <f>(C38-$I$2)^2 + (D38-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>17.770902777777778</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.7583333333333258</v>
       </c>
       <c r="K38">
@@ -3311,15 +3311,15 @@
         <v>57</v>
       </c>
       <c r="E39">
-        <f>ABS(C39-$I$2)+ABS(D39-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>21.708333333333329</v>
       </c>
       <c r="F39">
-        <f>(C39-$I$2)^2 + (D39-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>250.52256944444431</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.4583333333333286</v>
       </c>
       <c r="K39">
@@ -3349,15 +3349,15 @@
         <v>50.625</v>
       </c>
       <c r="E40">
-        <f>ABS(C40-$I$2)+ABS(D40-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>25.723333333333329</v>
       </c>
       <c r="F40">
-        <f>(C40-$I$2)^2 + (D40-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>431.57029444444424</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.723333333333329</v>
       </c>
       <c r="K40">
@@ -3387,15 +3387,15 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f>ABS(C41-$I$2)+ABS(D41-$I$3)</f>
+        <f t="shared" si="0"/>
         <v>14.458333333333329</v>
       </c>
       <c r="F41">
-        <f>(C41-$I$2)^2 + (D41-$I$3)^2</f>
+        <f t="shared" si="1"/>
         <v>127.02256944444434</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.458333333333329</v>
       </c>
       <c r="K41">
@@ -3418,6 +3418,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4011,6 +4014,7 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>